--- a/BMS Inventory Code/BMS/bin/x86/Debug/Templates/PhongKinhDoanh/FCM-SX-TEMPLATE.xlsx
+++ b/BMS Inventory Code/BMS/bin/x86/Debug/Templates/PhongKinhDoanh/FCM-SX-TEMPLATE.xlsx
@@ -7,19 +7,17 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="144525" calcMode="autoNoTable"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
   <si>
     <t>PHÂN TÍCH CHI PHÍ DỰ ÁN</t>
   </si>
@@ -30,9 +28,6 @@
     <t>Tháng</t>
   </si>
   <si>
-    <t>V1.0</t>
-  </si>
-  <si>
     <t>Khối</t>
   </si>
   <si>
@@ -48,9 +43,6 @@
     <t>Mã dự án</t>
   </si>
   <si>
-    <t>T020.1701</t>
-  </si>
-  <si>
     <t>Tên dự án</t>
   </si>
   <si>
@@ -69,15 +61,9 @@
     <t>Quản lý đơn hàng/dự án</t>
   </si>
   <si>
-    <t>DT.Phòng kinh doanh 2</t>
-  </si>
-  <si>
     <t>Số PO/HĐ</t>
   </si>
   <si>
-    <t>T020.1701.V01</t>
-  </si>
-  <si>
     <t>STT</t>
   </si>
   <si>
@@ -129,9 +115,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>TỔNG CHI PHÍ</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
@@ -205,18 +188,26 @@
   </si>
   <si>
     <t>CHI TIẾT CÁC CHI PHÍ</t>
+  </si>
+  <si>
+    <t>Chi phí đi lại của nhân viên</t>
+  </si>
+  <si>
+    <t>CHI PHÍ</t>
+  </si>
+  <si>
+    <t>Chi phí vận chuyển</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,18 +251,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
@@ -284,8 +263,36 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,14 +317,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -397,14 +398,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -420,7 +430,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -464,6 +474,81 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -472,187 +557,43 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -663,51 +604,108 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_081223 FCM Cover - VNTRA" xfId="3"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Normal_081223 FCM Cover - VNTRA" xfId="2"/>
+    <cellStyle name="Percent 10" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -725,14 +723,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1148715</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -741,8 +739,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28575" y="8886825"/>
-          <a:ext cx="1529715" cy="1085849"/>
+          <a:off x="28575" y="10287000"/>
+          <a:ext cx="1529715" cy="1106805"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -845,15 +843,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1228725</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>120015</xdr:rowOff>
+      <xdr:colOff>1209675</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -862,7 +860,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1638300" y="8883015"/>
+          <a:off x="1619250" y="10302240"/>
           <a:ext cx="1666875" cy="1091565"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -962,15 +960,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>443865</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>120015</xdr:rowOff>
+      <xdr:colOff>424815</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>413385</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:colOff>394335</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -979,8 +977,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3396615" y="8883015"/>
-          <a:ext cx="1664970" cy="1091565"/>
+          <a:off x="3377565" y="10302240"/>
+          <a:ext cx="1807845" cy="1091565"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1079,15 +1077,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>127635</xdr:rowOff>
+      <xdr:colOff>478155</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>998220</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>988695</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1096,8 +1094,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5135880" y="8890635"/>
-          <a:ext cx="1596390" cy="1091565"/>
+          <a:off x="5269230" y="10300335"/>
+          <a:ext cx="1701165" cy="1091565"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1173,6 +1171,46 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5587365" y="352425"/>
+          <a:ext cx="1032510" cy="388620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1186,114 +1224,32 @@
       <sheetName val="DETAIL.CN"/>
       <sheetName val="COSTS"/>
       <sheetName val="NC"/>
+      <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="3">
-          <cell r="AX3" t="str">
-            <v>THÀNH TIỀN</v>
-          </cell>
-        </row>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
         <row r="7">
           <cell r="G7">
             <v>1</v>
-          </cell>
-          <cell r="AP7">
-            <v>0</v>
-          </cell>
-          <cell r="AQ7">
-            <v>0</v>
           </cell>
         </row>
         <row r="8">
           <cell r="G8">
             <v>1</v>
           </cell>
-          <cell r="AP8">
-            <v>0</v>
-          </cell>
-          <cell r="AQ8">
-            <v>0</v>
-          </cell>
         </row>
         <row r="9">
-          <cell r="G9"/>
-          <cell r="AP9">
-            <v>0</v>
-          </cell>
-          <cell r="AQ9">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="G10"/>
-          <cell r="AP10">
-            <v>0</v>
-          </cell>
-          <cell r="AQ10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="G11"/>
-          <cell r="AP11">
-            <v>0</v>
-          </cell>
-          <cell r="AQ11">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="G12"/>
-          <cell r="AP12">
-            <v>0</v>
-          </cell>
-          <cell r="AQ12">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="G13"/>
-          <cell r="AP13">
-            <v>0</v>
-          </cell>
-          <cell r="AQ13">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="G14"/>
-          <cell r="AP14">
-            <v>0</v>
-          </cell>
-          <cell r="AQ14">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="G15"/>
-          <cell r="AP15">
-            <v>0</v>
-          </cell>
-          <cell r="AQ15">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="G16"/>
-          <cell r="AP16">
-            <v>0</v>
-          </cell>
-          <cell r="AQ16">
-            <v>0</v>
+          <cell r="G9">
+            <v>1</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1586,54 +1542,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" style="66" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="66" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="27" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="67"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+      <c r="C1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="67"/>
-    </row>
-    <row r="3" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="3"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="50"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1644,923 +1598,900 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="68" t="s">
+      <c r="I3" s="64"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="11">
-        <v>60</v>
-      </c>
+      <c r="F4" s="11"/>
       <c r="G4" s="12"/>
       <c r="H4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="65"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="69">
-        <v>42792</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>9</v>
-      </c>
+      <c r="D5" s="14"/>
       <c r="E5" s="4"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="67"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H5" s="53"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="50"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="67"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="5" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="67"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="5" t="s">
+      <c r="F8" s="48"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="81" t="s">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="81"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="67"/>
-    </row>
-    <row r="9" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="5" t="s">
+      <c r="F9" s="48"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="50"/>
+      <c r="B11" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="C11" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="81" t="s">
+      <c r="D11" s="51"/>
+      <c r="E11" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="81"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18" t="s">
+      <c r="F11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="67"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="67"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
-      <c r="B11" s="74" t="s">
+      <c r="G11" s="52"/>
+      <c r="H11" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="I11" s="49"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="73" t="s">
+      <c r="G12" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="75" t="s">
+      <c r="H12" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="75"/>
-      <c r="H11" s="82" t="s">
+      <c r="I12" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="82"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="24" t="s">
+    </row>
+    <row r="13" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="C13" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="59" t="s">
+      <c r="D13" s="67"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="79"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24">
+        <v>1</v>
+      </c>
+      <c r="C14" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="59" t="s">
+      <c r="D14" s="41"/>
+      <c r="E14" s="25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="76" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="77"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28">
-        <v>1</v>
-      </c>
-      <c r="C14" s="83" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="84"/>
-      <c r="E14" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="54" t="e">
+      <c r="F14" s="70" t="e">
         <f>H14/I17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="54" t="e">
+      <c r="G14" s="70" t="e">
         <f>I14/$I$17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="61">
-        <v>0</v>
-      </c>
-      <c r="I14" s="61">
+      <c r="H14" s="57"/>
+      <c r="I14" s="73">
         <f>I16-I17</f>
         <v>0</v>
       </c>
-      <c r="K14" s="30"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="77"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="K15" s="30"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28">
+    </row>
+    <row r="15" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="67"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="79"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24">
         <v>1</v>
       </c>
-      <c r="C16" s="83" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="84"/>
-      <c r="E16" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="31" t="e">
+      <c r="C16" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="41"/>
+      <c r="E16" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="71" t="e">
         <f>H16/$H$16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="31" t="e">
+      <c r="G16" s="71" t="e">
         <f>I16/$I$16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="61">
-        <v>0</v>
-      </c>
-      <c r="I16" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26" t="s">
+      <c r="H16" s="57"/>
+      <c r="I16" s="73"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="67"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="69">
+        <f>H18+H22+H26+H34</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="79">
+        <f>I18+I22+I26+I34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="67"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="69">
+        <f>SUM(H19:H21)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="79">
+        <f>SUM(I19:I21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25">
+        <v>1</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="41"/>
+      <c r="E19" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70" t="e">
+        <f t="shared" ref="G19:G43" si="0">I19/$I$16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="57"/>
+      <c r="I19" s="73"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25">
+        <v>2</v>
+      </c>
+      <c r="C20" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="76" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="77"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="60">
-        <f>H18+H22+H26+H32</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="60">
-        <f>I18+I22+I26+I32</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="30"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="77"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="60">
-        <f>SUM(H19:H21)</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="60">
-        <f>SUM(I19:I21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="34">
-        <v>1</v>
-      </c>
-      <c r="C19" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="84"/>
-      <c r="E19" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54" t="e">
-        <f>I19/$I$16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H19" s="61">
-        <v>0</v>
-      </c>
-      <c r="I19" s="61">
-        <v>0</v>
-      </c>
-      <c r="K19" s="32"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="34">
-        <v>2</v>
-      </c>
-      <c r="C20" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="84"/>
-      <c r="E20" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54" t="e">
-        <f t="shared" ref="G20:G36" si="0">I20/$I$16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" s="61">
-        <f>SUMPRODUCT([1]DETAIL.DN!G7:G100000,[1]DETAIL.DN!AP7:AP100000)</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="61">
-        <f>SUMPRODUCT([1]DETAIL.DN!G7:G100000,[1]DETAIL.DN!AP7:AP100000)</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="30"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="34">
-        <v>3</v>
-      </c>
-      <c r="C21" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="84"/>
-      <c r="E21" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54" t="e">
+      <c r="D20" s="41"/>
+      <c r="E20" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="61">
-        <f>SUMPRODUCT([1]DETAIL.DN!G7:G100000,[1]DETAIL.DN!AQ7:AQ100000)</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="61">
-        <f>SUMPRODUCT([1]DETAIL.DN!G7:G100000,[1]DETAIL.DN!AQ7:AQ100000)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="30"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="77"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="60">
-        <f>SUM(H23:H25)</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="60">
-        <f>SUM(I23:I25)</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="33"/>
-    </row>
-    <row r="23" spans="1:11" s="35" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34">
-        <v>1</v>
-      </c>
-      <c r="C23" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="84"/>
-      <c r="E23" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56" t="e">
+      <c r="H20" s="57">
+        <f>SUMPRODUCT([1]DETAIL.CN!G7:G100000,[1]DETAIL.CN!AV7:AV100000)</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="73">
+        <f>SUMPRODUCT([1]DETAIL.CN!G7:G100000,[1]DETAIL.CN!AV7:AV100000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25">
+        <v>3</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="41"/>
+      <c r="E21" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="61">
-        <f>F23*$H$16</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="35" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34">
-        <v>2</v>
-      </c>
-      <c r="C24" s="83" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="84"/>
-      <c r="E24" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56" t="e">
+      <c r="H21" s="57">
+        <f>SUMPRODUCT([1]DETAIL.CN!G7:G100000,[1]DETAIL.CN!AW7:AW100000)</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="73">
+        <f>SUMPRODUCT([1]DETAIL.CN!G7:G100000,[1]DETAIL.CN!AW7:AW100000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="67"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="69">
+        <f>SUM(H23:H25)</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="79">
+        <f>SUM(I23:I25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25">
+        <v>1</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="41"/>
+      <c r="E23" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="61">
-        <f t="shared" ref="H24:H25" si="1">F24*$H$16</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="61">
-        <v>0</v>
-      </c>
-      <c r="K24" s="36"/>
-    </row>
-    <row r="25" spans="1:11" s="35" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34">
-        <v>3</v>
-      </c>
-      <c r="C25" s="83" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="84"/>
-      <c r="E25" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56" t="e">
+      <c r="H23" s="57">
+        <f>F23*$H$16</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="73"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25">
+        <v>2</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="41"/>
+      <c r="E24" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="61">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="77"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="60">
-        <f>SUM(H27:H31)</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="60">
-        <f>SUM(I27:I31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="35" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34">
-        <v>1</v>
-      </c>
-      <c r="C27" s="83" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="84"/>
-      <c r="E27" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56" t="e">
+      <c r="H24" s="57">
+        <f t="shared" ref="H24:H25" si="1">F24*$H$16</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="73"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25">
+        <v>3</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="41"/>
+      <c r="E25" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="61">
-        <f t="shared" ref="H27:H31" si="2">F27*$H$16</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="70"/>
-    </row>
-    <row r="28" spans="1:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34">
-        <v>2</v>
-      </c>
-      <c r="C28" s="83" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="84"/>
-      <c r="E28" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56" t="e">
+      <c r="H25" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="73"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="67"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="69">
+        <f>SUM(H27:H33)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="79">
+        <f>SUM(I30:I33)+I27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26">
+        <v>1</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="41"/>
+      <c r="E27" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="61">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="70"/>
-    </row>
-    <row r="29" spans="1:11" s="35" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34">
-        <v>3</v>
-      </c>
-      <c r="C29" s="83" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="84"/>
-      <c r="E29" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56" t="e">
+      <c r="H27" s="57">
+        <f t="shared" ref="H27:H33" si="2">F27*$H$16</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="73">
+        <f>SUM(I28:I29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="58">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="60"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="82"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="58">
+        <v>1.2</v>
+      </c>
+      <c r="C29" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="60"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="82"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25">
+        <v>2</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="41"/>
+      <c r="E30" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="61">
-        <f>F29*$H$16</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="35" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34">
-        <v>4</v>
-      </c>
-      <c r="C30" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="84"/>
-      <c r="E30" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56" t="e">
+      <c r="H30" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="77"/>
+    </row>
+    <row r="31" spans="1:9" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26">
+        <v>3</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="41"/>
+      <c r="E31" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="61">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="35" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34">
-        <v>5</v>
-      </c>
-      <c r="C31" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="84"/>
-      <c r="E31" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56" t="e">
+      <c r="H31" s="57">
+        <f>F31*$H$16</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="73"/>
+    </row>
+    <row r="32" spans="1:9" s="27" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="26">
+        <v>4</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="41"/>
+      <c r="E32" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="61">
+      <c r="H32" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I31" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="35" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="76" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="77"/>
-      <c r="E32" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="60">
-        <f>SUM(H33:H36)</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="60">
-        <f>SUM(I33:I36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34">
-        <v>1</v>
-      </c>
-      <c r="C33" s="83" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="84"/>
-      <c r="E33" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56" t="e">
+      <c r="I32" s="73"/>
+    </row>
+    <row r="33" spans="1:9" s="27" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="26">
+        <v>5</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="41"/>
+      <c r="E33" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="61">
-        <f t="shared" ref="H33:H36" si="3">F33*$H$16</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34">
-        <v>2</v>
-      </c>
-      <c r="C34" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="84"/>
-      <c r="E34" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56" t="e">
+      <c r="H33" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="73"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="67"/>
+      <c r="E34" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="69">
+        <f>SUM(H35:H43)</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="79">
+        <f>SUM(I35:I37)+I43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
+      <c r="B35" s="25">
+        <v>1</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="41"/>
+      <c r="E35" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="61">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34">
-        <v>3</v>
-      </c>
-      <c r="C35" s="83" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="84"/>
-      <c r="E35" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56" t="e">
+      <c r="H35" s="57">
+        <f t="shared" ref="H35:H43" si="3">F35*$H$16</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="73"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
+      <c r="B36" s="25">
+        <v>2</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="41"/>
+      <c r="E36" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="61">
+      <c r="H36" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I35" s="70"/>
-    </row>
-    <row r="36" spans="1:9" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34">
-        <v>4</v>
-      </c>
-      <c r="C36" s="83" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="84"/>
-      <c r="E36" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56" t="e">
+      <c r="I36" s="73"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="25"/>
+      <c r="B37" s="25">
+        <v>3</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="41"/>
+      <c r="E37" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="61">
+      <c r="H37" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I36" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
-      <c r="B37" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="77"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="71"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="71"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="71"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="72"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="67"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="67"/>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="67"/>
+      <c r="I37" s="73">
+        <f>SUM(I38:I42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="25"/>
+      <c r="B38" s="62">
+        <v>3.1</v>
+      </c>
+      <c r="C38" s="59"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="82"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="25"/>
+      <c r="B39" s="62">
+        <v>3.2</v>
+      </c>
+      <c r="C39" s="59"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="82"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="25"/>
+      <c r="B40" s="62">
+        <v>3.3</v>
+      </c>
+      <c r="C40" s="59"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="82"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="25"/>
+      <c r="B41" s="62">
+        <v>3.4</v>
+      </c>
+      <c r="C41" s="59"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="74"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="82"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="25"/>
+      <c r="B42" s="62">
+        <v>3.5</v>
+      </c>
+      <c r="C42" s="59"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="74"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="82"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="25"/>
+      <c r="B43" s="25">
+        <v>4</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="41"/>
+      <c r="E43" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H43" s="57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="73"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="67"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="43"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="35"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="67"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="35"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="64"/>
-      <c r="I46" s="67"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="35"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="67"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="67"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="38"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="64"/>
-      <c r="I49" s="67"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="38"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="64"/>
-      <c r="I50" s="67"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="67"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="67"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="45">
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
@@ -2568,54 +2499,25 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C1:H2"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:D12"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:G11"/>
   </mergeCells>
-  <pageMargins left="0.16666666666666666" right="0.16666666666666666" top="0.53125" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageMargins left="0.17708333333333334" right="0.17708333333333334" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>